--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/5. XXI-КПА-30-500-5 (Мерная).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/5. XXI-КПА-30-500-5 (Мерная).xlsx
@@ -907,8 +907,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1005,20 +1003,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1028,6 +1012,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1339,7 +1343,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="E38:J38"/>
+      <selection activeCell="E32" sqref="E32:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1359,29 +1363,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
       <c r="F2" s="40"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1443,7 +1447,7 @@
       <c r="A5" s="53">
         <v>1</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -1462,14 +1466,14 @@
       <c r="I5" s="60"/>
       <c r="J5" s="54"/>
       <c r="K5" s="54"/>
-      <c r="L5" s="90"/>
+      <c r="L5" s="88"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="57">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="69" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1488,14 +1492,14 @@
       <c r="I6" s="61"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="91"/>
+      <c r="L6" s="89"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="57">
         <f t="shared" ref="A7:A17" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="69" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1514,14 +1518,14 @@
       <c r="I7" s="61"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="91"/>
+      <c r="L7" s="89"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="57">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="69" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1540,14 +1544,14 @@
       <c r="I8" s="61"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="91"/>
+      <c r="L8" s="89"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="57">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="70" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1566,14 +1570,14 @@
       <c r="I9" s="62"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="91"/>
+      <c r="L9" s="89"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="57">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="69" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -1592,14 +1596,14 @@
       <c r="I10" s="61"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="91"/>
+      <c r="L10" s="89"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="57">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="69" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1618,7 +1622,7 @@
       <c r="I11" s="62"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="91"/>
+      <c r="L11" s="89"/>
       <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:13" ht="19.8" customHeight="1">
@@ -1626,7 +1630,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="70" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -1645,7 +1649,7 @@
       <c r="I12" s="62"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="91"/>
+      <c r="L12" s="89"/>
       <c r="M12" s="36"/>
     </row>
     <row r="13" spans="1:13" ht="18.600000000000001" customHeight="1">
@@ -1653,7 +1657,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="70" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1674,14 +1678,14 @@
       <c r="I13" s="62"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="91"/>
+      <c r="L13" s="89"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1">
       <c r="A14" s="57">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -1700,14 +1704,14 @@
       <c r="I14" s="62"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="91"/>
+      <c r="L14" s="89"/>
     </row>
     <row r="15" spans="1:13" ht="17.399999999999999" customHeight="1">
       <c r="A15" s="57">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="69" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -1726,40 +1730,40 @@
       <c r="I15" s="62"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="91"/>
+      <c r="L15" s="89"/>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1">
       <c r="A16" s="57">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="105" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="103">
+      <c r="D16" s="100"/>
+      <c r="E16" s="101">
         <v>120</v>
       </c>
-      <c r="F16" s="104"/>
-      <c r="G16" s="102">
+      <c r="F16" s="102"/>
+      <c r="G16" s="100">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H16" s="105"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="91"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="89"/>
     </row>
     <row r="17" spans="1:12" ht="16.8" customHeight="1" thickBot="1">
       <c r="A17" s="57">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="71" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -1776,13 +1780,13 @@
       </c>
       <c r="H17" s="67"/>
       <c r="I17" s="63"/>
-      <c r="J17" s="84"/>
+      <c r="J17" s="82"/>
       <c r="K17" s="59"/>
-      <c r="L17" s="91"/>
+      <c r="L17" s="89"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="82"/>
-      <c r="B18" s="81"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1794,7 +1798,7 @@
     </row>
     <row r="19" spans="1:12" ht="16.2" thickBot="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="81" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="14"/>
@@ -1804,9 +1808,9 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
     </row>
     <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1">
       <c r="A20" s="47" t="s">
@@ -1836,52 +1840,52 @@
       <c r="I20" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="92">
+      <c r="A21" s="90">
         <f>E5*700000</f>
         <v>14000000</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95">
+      <c r="B21" s="92"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93">
         <v>0</v>
       </c>
       <c r="G21" s="46">
         <v>0</v>
       </c>
-      <c r="H21" s="99">
+      <c r="H21" s="97">
         <f>A21-F21</f>
         <v>14000000</v>
       </c>
-      <c r="I21" s="100">
+      <c r="I21" s="98">
         <f>1-G21</f>
         <v>1</v>
       </c>
-      <c r="J21" s="87"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1">
       <c r="A22" s="52"/>
-      <c r="B22" s="96">
+      <c r="B22" s="94">
         <v>43535</v>
       </c>
-      <c r="C22" s="96">
+      <c r="C22" s="94">
         <v>43538</v>
       </c>
-      <c r="D22" s="96">
+      <c r="D22" s="94">
         <v>43542</v>
       </c>
-      <c r="E22" s="97">
+      <c r="E22" s="95">
         <v>312480</v>
       </c>
-      <c r="F22" s="97">
+      <c r="F22" s="95">
         <v>413898</v>
       </c>
       <c r="G22" s="46">
@@ -1929,9 +1933,9 @@
         <f>I22-G23</f>
         <v>0.93919728571428573</v>
       </c>
-      <c r="J23" s="87"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="16"/>
@@ -1943,8 +1947,8 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="15"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
@@ -1957,8 +1961,8 @@
       <c r="G25" s="29"/>
       <c r="H25" s="34"/>
       <c r="I25" s="31"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="88"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="86"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
@@ -1971,8 +1975,8 @@
       <c r="G26" s="29"/>
       <c r="H26" s="34"/>
       <c r="I26" s="31"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
@@ -1985,8 +1989,8 @@
       <c r="G27" s="29"/>
       <c r="H27" s="34"/>
       <c r="I27" s="31"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
@@ -1999,8 +2003,8 @@
       <c r="G28" s="29"/>
       <c r="H28" s="34"/>
       <c r="I28" s="31"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
@@ -2013,8 +2017,8 @@
       <c r="G29" s="30"/>
       <c r="H29" s="34"/>
       <c r="I29" s="32"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12">
@@ -2027,8 +2031,8 @@
       <c r="G30" s="29"/>
       <c r="H30" s="34"/>
       <c r="I30" s="32"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="13.8" thickBot="1">
@@ -2052,11 +2056,11 @@
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="23"/>
-      <c r="E32" s="69">
+      <c r="E32" s="117">
         <f>SUM(E21:E31)</f>
         <v>645420</v>
       </c>
-      <c r="F32" s="68">
+      <c r="F32" s="118">
         <f>SUM(F21:F31)</f>
         <v>851238</v>
       </c>
@@ -2072,9 +2076,9 @@
         <f>1-G32</f>
         <v>0.93919728571428573</v>
       </c>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="87"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1"/>
@@ -2089,12 +2093,12 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A36" s="109" t="s">
+      <c r="A36" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="109"/>
-      <c r="C36" s="109"/>
-      <c r="D36" s="109"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2103,10 +2107,10 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="118" t="s">
+      <c r="A37" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="118"/>
+      <c r="B37" s="110"/>
       <c r="C37" s="12" t="s">
         <v>17</v>
       </c>
@@ -2121,12 +2125,12 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="116">
+      <c r="A38" s="108">
         <f>A21-F32</f>
         <v>13148762</v>
       </c>
-      <c r="B38" s="117"/>
-      <c r="C38" s="93">
+      <c r="B38" s="109"/>
+      <c r="C38" s="91">
         <f>1-G32</f>
         <v>0.93919728571428573</v>
       </c>
@@ -2134,14 +2138,14 @@
         <f>(C38/0.8)*100</f>
         <v>117.39966071428572</v>
       </c>
-      <c r="E38" s="101" t="s">
+      <c r="E38" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="101"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="101"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="101"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1"/>
@@ -2179,113 +2183,113 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="74"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="114"/>
-      <c r="J42" s="115"/>
+      <c r="A42" s="72"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="107"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="75"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
+      <c r="A43" s="73"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="76"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="74"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="75"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="76"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="74"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="75"/>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="74"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="76"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="74"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="75"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="76"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="74"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="75"/>
-      <c r="B47" s="76"/>
-      <c r="C47" s="76"/>
+      <c r="A47" s="73"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="74"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="76"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="74"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="75"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="75"/>
-      <c r="B49" s="76"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="76"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="74"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="75"/>
-      <c r="B50" s="76"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="76"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="74"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="75"/>
-      <c r="B51" s="76"/>
-      <c r="C51" s="76"/>
+      <c r="A51" s="73"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="76"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="75"/>
+      <c r="H51" s="74"/>
     </row>
     <row r="52" spans="1:10" ht="15.6">
       <c r="A52" s="1"/>
-      <c r="B52" s="111"/>
-      <c r="C52" s="111"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="80"/>
+      <c r="B52" s="114"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="115"/>
+      <c r="E52" s="78"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -2293,40 +2297,40 @@
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="74"/>
-      <c r="B53" s="74"/>
-      <c r="C53" s="74"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="114"/>
-      <c r="J53" s="115"/>
+      <c r="A53" s="72"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="107"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="75"/>
+      <c r="A54" s="73"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="110"/>
-      <c r="J54" s="110"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="111"/>
+      <c r="J54" s="111"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="75"/>
+      <c r="A55" s="73"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="110"/>
-      <c r="J55" s="110"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="111"/>
+      <c r="J55" s="111"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1"/>
@@ -2339,18 +2343,23 @@
       <c r="H56" s="1"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="B61" s="114"/>
-      <c r="C61" s="115"/>
+      <c r="B61" s="106"/>
+      <c r="C61" s="107"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="114"/>
-      <c r="C68" s="115"/>
+      <c r="B68" s="106"/>
+      <c r="C68" s="107"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A37:B37"/>
@@ -2358,11 +2367,6 @@
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I54:J54"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/5. XXI-КПА-30-500-5 (Мерная).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/5. XXI-КПА-30-500-5 (Мерная).xlsx
@@ -744,7 +744,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -762,7 +762,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -770,7 +769,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -780,8 +778,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -809,8 +805,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -974,7 +968,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1002,6 +995,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1014,24 +1027,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1343,7 +1348,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:F32"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1363,34 +1368,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="40"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.2" thickBot="1">
@@ -1401,79 +1406,79 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="M3" s="14"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="38" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="53">
+      <c r="A5" s="47">
         <v>1</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="62" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56">
+      <c r="D5" s="50"/>
+      <c r="E5" s="50">
         <v>20</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56">
+      <c r="F5" s="49"/>
+      <c r="G5" s="50">
         <f>E5-F5</f>
         <v>20</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="88"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="82"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="57">
+      <c r="A6" s="51">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="63" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1483,23 +1488,23 @@
       <c r="E6" s="9">
         <v>20</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G17" si="0">E6-F6</f>
         <v>20</v>
       </c>
-      <c r="H6" s="65"/>
-      <c r="I6" s="61"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="55"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="89"/>
+      <c r="L6" s="83"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="57">
+      <c r="A7" s="51">
         <f t="shared" ref="A7:A17" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="63" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1509,23 +1514,23 @@
       <c r="E7" s="9">
         <v>26</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="61"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="89"/>
+      <c r="L7" s="83"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="57">
+      <c r="A8" s="51">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="63" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1535,23 +1540,23 @@
       <c r="E8" s="9">
         <v>26</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="61"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="89"/>
+      <c r="L8" s="83"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="57">
+      <c r="A9" s="51">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="64" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1561,23 +1566,23 @@
       <c r="E9" s="9">
         <v>18</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="62"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="56"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="89"/>
+      <c r="L9" s="83"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="57">
+      <c r="A10" s="51">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="63" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -1587,23 +1592,23 @@
       <c r="E10" s="9">
         <v>20</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="61"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="89"/>
+      <c r="L10" s="83"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="57">
+      <c r="A11" s="51">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="63" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1613,24 +1618,24 @@
       <c r="E11" s="9">
         <v>50</v>
       </c>
-      <c r="F11" s="38"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="62"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="56"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="36"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:13" ht="19.8" customHeight="1">
-      <c r="A12" s="57">
+      <c r="A12" s="51">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="64" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -1640,24 +1645,24 @@
       <c r="E12" s="9">
         <v>21</v>
       </c>
-      <c r="F12" s="39"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H12" s="66"/>
-      <c r="I12" s="62"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="56"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="36"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="30"/>
     </row>
     <row r="13" spans="1:13" ht="18.600000000000001" customHeight="1">
-      <c r="A13" s="57">
+      <c r="A13" s="51">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="64" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1667,25 +1672,25 @@
       <c r="E13" s="9">
         <v>8</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H13" s="66" t="s">
+      <c r="H13" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="62"/>
+      <c r="I13" s="56"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="89"/>
+      <c r="L13" s="83"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1">
-      <c r="A14" s="57">
+      <c r="A14" s="51">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="63" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -1695,98 +1700,98 @@
       <c r="E14" s="9">
         <v>40</v>
       </c>
-      <c r="F14" s="38"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="62"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="56"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="89"/>
+      <c r="L14" s="83"/>
     </row>
     <row r="15" spans="1:13" ht="17.399999999999999" customHeight="1">
-      <c r="A15" s="57">
+      <c r="A15" s="51">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>50</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H15" s="66"/>
-      <c r="I15" s="62"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="56"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="89"/>
+      <c r="L15" s="83"/>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1">
-      <c r="A16" s="57">
+      <c r="A16" s="51">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="98" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="100"/>
-      <c r="E16" s="101">
+      <c r="D16" s="93"/>
+      <c r="E16" s="94">
         <v>120</v>
       </c>
-      <c r="F16" s="102"/>
-      <c r="G16" s="100">
+      <c r="F16" s="95"/>
+      <c r="G16" s="93">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H16" s="103"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="89"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="83"/>
     </row>
     <row r="17" spans="1:12" ht="16.8" customHeight="1" thickBot="1">
-      <c r="A17" s="57">
+      <c r="A17" s="51">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="65" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59">
+      <c r="D17" s="53"/>
+      <c r="E17" s="53">
         <v>22</v>
       </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59">
+      <c r="F17" s="52"/>
+      <c r="G17" s="53">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H17" s="67"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="89"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="83"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="80"/>
-      <c r="B18" s="79"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1798,105 +1803,105 @@
     </row>
     <row r="19" spans="1:12" ht="16.2" thickBot="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
     </row>
     <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="49" t="s">
+      <c r="G20" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="50" t="s">
+      <c r="H20" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="51" t="s">
+      <c r="I20" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="90">
+      <c r="A21" s="84">
         <f>E5*700000</f>
         <v>14000000</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93">
+      <c r="B21" s="86"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87">
         <v>0</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="40">
         <v>0</v>
       </c>
-      <c r="H21" s="97">
+      <c r="H21" s="90">
         <f>A21-F21</f>
         <v>14000000</v>
       </c>
-      <c r="I21" s="98">
+      <c r="I21" s="91">
         <f>1-G21</f>
         <v>1</v>
       </c>
-      <c r="J21" s="85"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A22" s="52"/>
-      <c r="B22" s="94">
+      <c r="A22" s="46"/>
+      <c r="B22" s="88">
         <v>43535</v>
       </c>
-      <c r="C22" s="94">
+      <c r="C22" s="88">
         <v>43538</v>
       </c>
-      <c r="D22" s="94">
+      <c r="D22" s="88">
         <v>43542</v>
       </c>
-      <c r="E22" s="95">
+      <c r="E22" s="115">
         <v>312480</v>
       </c>
-      <c r="F22" s="95">
+      <c r="F22" s="115">
         <v>413898</v>
       </c>
-      <c r="G22" s="46">
+      <c r="G22" s="40">
         <f>F22/$A$21</f>
         <v>2.9564142857142858E-2</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="28">
         <f>H21-F22</f>
         <v>13586102</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="27">
         <f>I21-G22</f>
         <v>0.97043585714285718</v>
       </c>
@@ -1905,7 +1910,7 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A23" s="16"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="10">
         <v>43682</v>
       </c>
@@ -1915,170 +1920,189 @@
       <c r="D23" s="10">
         <v>43711</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="28">
         <v>332940</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="28">
         <v>437340</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23" s="40">
         <f>F23/$A$21</f>
         <v>3.1238571428571428E-2</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="28">
         <f>H22-F23</f>
         <v>13148762</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I23" s="27">
         <f>I22-G23</f>
         <v>0.93919728571428573</v>
       </c>
-      <c r="J23" s="85"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="16"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="10">
+        <v>43917</v>
+      </c>
+      <c r="C24" s="10">
+        <v>43919</v>
+      </c>
+      <c r="D24" s="10">
+        <v>43920</v>
+      </c>
+      <c r="E24" s="28">
+        <v>390600</v>
+      </c>
+      <c r="F24" s="28">
+        <v>441439</v>
+      </c>
+      <c r="G24" s="40">
+        <f>F24/$A$21</f>
+        <v>3.1531357142857146E-2</v>
+      </c>
+      <c r="H24" s="28">
+        <f>H23-F24</f>
+        <v>12707323</v>
+      </c>
+      <c r="I24" s="27">
+        <f>I23-G24</f>
+        <v>0.90766592857142858</v>
+      </c>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="16"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="86"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="80"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="16"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="16"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="16"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="16"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="16"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="33"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="114"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="117">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="99">
         <f>SUM(E21:E31)</f>
-        <v>645420</v>
-      </c>
-      <c r="F32" s="118">
+        <v>1036020</v>
+      </c>
+      <c r="F32" s="100">
         <f>SUM(F21:F31)</f>
-        <v>851238</v>
-      </c>
-      <c r="G32" s="28">
+        <v>1292677</v>
+      </c>
+      <c r="G32" s="24">
         <f>SUM(G21:G31)</f>
-        <v>6.0802714285714286E-2</v>
-      </c>
-      <c r="H32" s="24">
+        <v>9.2334071428571432E-2</v>
+      </c>
+      <c r="H32" s="20">
         <f>A21-F32</f>
-        <v>13148762</v>
-      </c>
-      <c r="I32" s="37">
+        <v>12707323</v>
+      </c>
+      <c r="I32" s="31">
         <f>1-G32</f>
-        <v>0.93919728571428573</v>
-      </c>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="87"/>
+        <v>0.90766592857142858</v>
+      </c>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1"/>
@@ -2093,12 +2117,12 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A36" s="113" t="s">
+      <c r="A36" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="113"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="113"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2107,14 +2131,14 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="110" t="s">
+      <c r="A37" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="110"/>
-      <c r="C37" s="12" t="s">
+      <c r="B37" s="111"/>
+      <c r="C37" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="1"/>
@@ -2125,27 +2149,27 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="108">
+      <c r="A38" s="109">
         <f>A21-F32</f>
-        <v>13148762</v>
-      </c>
-      <c r="B38" s="109"/>
-      <c r="C38" s="91">
+        <v>12707323</v>
+      </c>
+      <c r="B38" s="110"/>
+      <c r="C38" s="85">
         <f>1-G32</f>
-        <v>0.93919728571428573</v>
-      </c>
-      <c r="D38" s="25">
+        <v>0.90766592857142858</v>
+      </c>
+      <c r="D38" s="21">
         <f>(C38/0.8)*100</f>
-        <v>117.39966071428572</v>
-      </c>
-      <c r="E38" s="99" t="s">
+        <v>113.45824107142857</v>
+      </c>
+      <c r="E38" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1"/>
@@ -2183,113 +2207,113 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="72"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="107"/>
+      <c r="A42" s="66"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="108"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="73"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="74"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="68"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="73"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="74"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="68"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="73"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="74"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="74"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="68"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="73"/>
-      <c r="B46" s="74"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="74"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="68"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="73"/>
-      <c r="B47" s="74"/>
-      <c r="C47" s="74"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="68"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="74"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="68"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="73"/>
-      <c r="B48" s="74"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
+      <c r="A48" s="67"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="73"/>
-      <c r="B49" s="74"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="74"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="68"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="73"/>
-      <c r="B50" s="74"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="74"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="68"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="73"/>
-      <c r="B51" s="74"/>
-      <c r="C51" s="74"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="74"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="68"/>
     </row>
     <row r="52" spans="1:10" ht="15.6">
       <c r="A52" s="1"/>
-      <c r="B52" s="114"/>
-      <c r="C52" s="114"/>
-      <c r="D52" s="115"/>
-      <c r="E52" s="78"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="72"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -2297,40 +2321,40 @@
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="72"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="107"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="66"/>
+      <c r="I53" s="107"/>
+      <c r="J53" s="108"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="73"/>
+      <c r="A54" s="67"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="74"/>
-      <c r="I54" s="111"/>
-      <c r="J54" s="111"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="103"/>
+      <c r="J54" s="103"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="73"/>
+      <c r="A55" s="67"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="111"/>
-      <c r="J55" s="111"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="103"/>
+      <c r="J55" s="103"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1"/>
@@ -2343,23 +2367,18 @@
       <c r="H56" s="1"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="B61" s="106"/>
-      <c r="C61" s="107"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="108"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="106"/>
-      <c r="C68" s="107"/>
+      <c r="B68" s="107"/>
+      <c r="C68" s="108"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A37:B37"/>
@@ -2367,6 +2386,11 @@
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I54:J54"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
